--- a/report/reliability/by-etapa-ensino/Ensino Superior.xlsx
+++ b/report/reliability/by-etapa-ensino/Ensino Superior.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9068030275196801</v>
+        <v>0.8820756582171343</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9077125193487696</v>
+        <v>0.8831659503933578</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9196658479600084</v>
+        <v>0.8940725664522917</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.36651563951174826</v>
+        <v>0.3676780974593123</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.835705915292715</v>
+        <v>7.5591486674202235</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.0074558771682266805</v>
+        <v>0.009539981290914563</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5557371096586783</v>
+        <v>2.425925925925926</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6736089379630033</v>
+        <v>0.6999859404615608</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.35921669581908894</v>
+        <v>0.354052383582356</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8992207700235979</v>
+        <v>0.8753151289180118</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9006209581385345</v>
+        <v>0.8764760040183609</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9118406657105178</v>
+        <v>0.8853957540696127</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.361595597630656</v>
+        <v>0.3715827528498193</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.062483812170395</v>
+        <v>7.095593022659688</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.008101114537076492</v>
+        <v>0.010124411087784597</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.008920211086565122</v>
+        <v>0.009196912804704992</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.35476087442274296</v>
+        <v>0.3542598528396204</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8998424064050998</v>
+        <v>0.8693228934212744</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9011654485024294</v>
+        <v>0.87143771094926</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9129500547575996</v>
+        <v>0.8798051232818327</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3630045581127372</v>
+        <v>0.36096556234710897</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.117919137059891</v>
+        <v>6.778330701667328</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.00803764896531417</v>
+        <v>0.010637782051451203</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.009132878992310387</v>
+        <v>0.00890340928162614</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.35808722962492556</v>
+        <v>0.34942368451180816</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.90158401429894</v>
+        <v>0.8698898715230191</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9024473703493018</v>
+        <v>0.8717929660107265</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9130858265531535</v>
+        <v>0.8820933015507975</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3663586397728645</v>
+        <v>0.36169819102878253</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>9.250876922340783</v>
+        <v>6.799884053816159</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.007890236002264963</v>
+        <v>0.010576702212675686</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.008719711645260616</v>
+        <v>0.009510739836949568</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3593578194820942</v>
+        <v>0.34552231449174553</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.899798200711052</v>
+        <v>0.869597341423668</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.9010804647497522</v>
+        <v>0.8711870242081561</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9125243386001999</v>
+        <v>0.8815987931989694</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.36278403808947146</v>
+        <v>0.3604500065546795</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.109226630212001</v>
+        <v>6.763193062288667</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.008037219843410784</v>
+        <v>0.010597714351132381</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.00949117213864143</v>
+        <v>0.00989313445414319</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.35808722962492556</v>
+        <v>0.3520383962472468</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9014455669088489</v>
+        <v>0.8821836232166357</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.902026688925428</v>
+        <v>0.8830539353388425</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9131062040593585</v>
+        <v>0.8902420791797556</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.36525219099301426</v>
+        <v>0.3862190969721607</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.206861328171849</v>
+        <v>7.550950413743512</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.007887713613128452</v>
+        <v>0.009546896946404261</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0097192429912969</v>
+        <v>0.008324078666781613</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3593578194820942</v>
+        <v>0.3624524078408601</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9010637803100199</v>
+        <v>0.8719822986591963</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9018623305771456</v>
+        <v>0.8726353182946538</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9134752521540903</v>
+        <v>0.8827706510456029</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3648214409792622</v>
+        <v>0.36344487260713193</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.189767149362517</v>
+        <v>6.851470176900891</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.007918692800478088</v>
+        <v>0.010370817176673066</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.009650628136308001</v>
+        <v>0.010262899117007432</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.36050966238815224</v>
+        <v>0.3567093069995213</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9005532623895801</v>
+        <v>0.8775559410700315</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9015146509598954</v>
+        <v>0.8786641044074197</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9133445539465832</v>
+        <v>0.8867014774152481</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3639130680510098</v>
+        <v>0.37635072687806514</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.15379454656536</v>
+        <v>7.241584199928635</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.007964737705577119</v>
+        <v>0.009939146969173342</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.009676632275422037</v>
+        <v>0.010350231658084273</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.35476087442274296</v>
+        <v>0.36183299882097747</v>
       </c>
     </row>
     <row r="18">
@@ -2752,25 +2740,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8998917778666903</v>
+        <v>0.8723135642313263</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.9008042499919121</v>
+        <v>0.8722742103999507</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9130391482409643</v>
+        <v>0.8818893121788185</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.36206886327894716</v>
+        <v>0.3626944397263708</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.081077061451376</v>
+        <v>6.829272405606756</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.008046698970804345</v>
+        <v>0.010338926321490959</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.009424621348119843</v>
+        <v>0.010237472102795757</v>
       </c>
       <c r="I18" t="n" s="65">
         <v>0.354052383582356</v>
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9042188775313672</v>
+        <v>0.8715083475970533</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9052993595229242</v>
+        <v>0.872665552089489</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9153011798385846</v>
+        <v>0.8832407789080108</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.37401188445872857</v>
+        <v>0.3635078153388612</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.559590673962434</v>
+        <v>6.85333439936684</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.007674542694089198</v>
+        <v>0.010423560932032191</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.00961555973487845</v>
+        <v>0.009927563813179401</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.3621891352531805</v>
+        <v>0.34942368451180816</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9068007655266472</v>
+        <v>0.8703159715084554</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9075749393273855</v>
+        <v>0.8715436149229439</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9176834703833426</v>
+        <v>0.8828706316812842</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.38031516136678356</v>
+        <v>0.36118371573324115</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.819576343500307</v>
+        <v>6.78474343178923</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.007457445472048379</v>
+        <v>0.010566016339416442</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.008410117536587743</v>
+        <v>0.010081583887692619</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3647369890576735</v>
+        <v>0.3419229121444403</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9003298123139096</v>
+        <v>0.8733080657934604</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9012984733963817</v>
+        <v>0.8744658355851355</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9130917312994686</v>
+        <v>0.8849639998413553</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.36335019271138813</v>
+        <v>0.3672874630587055</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.131555553501856</v>
+        <v>6.96595894560788</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.007984052683059295</v>
+        <v>0.010269149538361408</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.010067419702958704</v>
+        <v>0.0112240036877172</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.35808722962492556</v>
+        <v>0.35408279230539597</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8992359691231449</v>
+        <v>0.8766402551004129</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9002291762254762</v>
+        <v>0.8780487437720228</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9116944473433473</v>
+        <v>0.8874644090605253</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3605874989820139</v>
+        <v>0.3749999196364338</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>9.02297026493377</v>
+        <v>7.199997531231563</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.008077711426413694</v>
+        <v>0.010009093968904592</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.009119585604671151</v>
+        <v>0.0103707395425729</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.354052383582356</v>
+        <v>0.35673971572256125</v>
       </c>
     </row>
     <row r="23">
@@ -2897,678 +2885,642 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9002618380208701</v>
+        <v>0.8743791419461079</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9006706996993343</v>
+        <v>0.8754735479381565</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9125156478247486</v>
+        <v>0.8872847930214036</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.361723928660903</v>
+        <v>0.3694307042396991</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>9.067522845454878</v>
+        <v>7.030422319455236</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.007997297633928879</v>
+        <v>0.0102030311274326</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.00939763590230893</v>
+        <v>0.011543632320046395</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3542598528396204</v>
+        <v>0.345824282164503</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9054971383245362</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9066145278667245</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9179596487992652</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3776329949579541</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.708303734577111</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.00757813300198083</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.009341208446318354</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.36610286258358005</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9007608823832747</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9018325064493868</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9146026508136507</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.36474337004765545</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.18667141057667</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.007953303793433739</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.010158649498406502</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3572103285826438</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9017484241480467</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9025995331052936</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9155337669733958</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3667602456436553</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.26689123657937</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.007872276103395245</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.010523532072927687</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.354730465699703</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9034767524755553</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9045009344614143</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9161906560265002</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.37184219796267554</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.471306649549977</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.007733552136546016</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.009815997197321482</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3620568493655289</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>324.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6324388993572763</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6145037889525921</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5777185526100737</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5396475134208616</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.447530864197531</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2368290934784776</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>324.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7160541168303305</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6980443661793373</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.6812143402789442</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6397808596921915</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.253086419753086</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.2282118613697854</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>324.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7030551051101704</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6922797316515631</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6679562258809085</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.6309915825472283</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.0864197530864197</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.1342954427463918</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>324.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7071448737604489</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.7021009787531777</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6776251617159841</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6416901458510534</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.8919753086419753</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.0516375786893835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7053439285995667</v>
+        <v>0.48394663200100013</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6900912963590814</v>
+        <v>0.4993387991035777</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6761195591293785</v>
+        <v>0.44085547749881</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6448609417165714</v>
+        <v>0.3886318383633355</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.253086419753086</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2282118613697854</v>
+        <v>1.045038402719199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6844136783995706</v>
+        <v>0.6673307115348348</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6744396854079474</v>
+        <v>0.6785360970008163</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6551662236271373</v>
+        <v>0.6496284570927054</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.626053921252338</v>
+        <v>0.6015687682634028</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.0864197530864197</v>
+        <v>2.049382716049383</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1342954427463918</v>
+        <v>0.9688809358923491</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6490184180598172</v>
+        <v>0.5558019197116041</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6371804564158737</v>
+        <v>0.5769873383981718</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6177250811148085</v>
+        <v>0.5307590650246091</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5795360562353584</v>
+        <v>0.48127358318057595</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.447530864197531</v>
+        <v>2.808641975308642</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2368290934784776</v>
+        <v>0.9042996750973791</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6840133587788043</v>
+        <v>0.6647421721880421</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6768893592312981</v>
+        <v>0.6844408225506416</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6581221135647723</v>
+        <v>0.6584707610892918</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6302618747152935</v>
+        <v>0.6038444844479649</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.8919753086419753</v>
+        <v>2.0771604938271606</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.0516375786893835</v>
+        <v>0.8990379923136089</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6362674268586654</v>
+        <v>0.6770420606502204</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6494715788851082</v>
+        <v>0.6780408367773566</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6281515949372105</v>
+        <v>0.6477298961672701</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.585895267853453</v>
+        <v>0.6019494484934425</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.0771604938271606</v>
+        <v>2.441358024691358</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.8990379923136089</v>
+        <v>1.1126709037950633</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6464966140244711</v>
+        <v>0.7057908580531598</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6542566184360286</v>
+        <v>0.6963278424156548</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6314885688753404</v>
+        <v>0.6672336429282915</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.593020438250441</v>
+        <v>0.6245440462463833</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.049382716049383</v>
+        <v>2.021604938271605</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9688809358923491</v>
+        <v>1.267415846135104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6643133563933092</v>
+        <v>0.6552046385432174</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6643473909256501</v>
+        <v>0.6483009585912256</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6413502828631722</v>
+        <v>0.6089448533165491</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6044636772685533</v>
+        <v>0.5705708776279587</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.441358024691358</v>
+        <v>2.8950617283950617</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1126709037950633</v>
+        <v>1.1861325906042703</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.692819108066092</v>
+        <v>0.5889160982118729</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.684833966648422</v>
+        <v>0.5876160651464718</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6640402028376396</v>
+        <v>0.5394396314010738</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6281442433121032</v>
+        <v>0.5034059645451001</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.021604938271605</v>
+        <v>2.25</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.267415846135104</v>
+        <v>1.0742554481136493</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>324.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5380712379013514</v>
+        <v>0.6218153335880408</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.5521634457470983</v>
+        <v>0.6314370240738383</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5179397076188454</v>
+        <v>0.5836888907754761</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.4783213912669817</v>
+        <v>0.5517502173283835</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.808641975308642</v>
+        <v>2.8981481481481484</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9042996750973791</v>
+        <v>0.9436751961437756</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4720327905091552</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4821427183123457</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.43727002277549376</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.39651600284562266</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.4166666666666665</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.045038402719199</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6749592769138435</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6706001609229555</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6477847578003281</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6122646914666103</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.8950617283950617</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1861325906042703</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7032698271673249</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7012898842893852</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.687049562203461</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.655678948346343</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.7253086419753085</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.9836944155614683</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6810434867552387</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6886657153126794</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.670341026984646</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.637076541526966</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.6512345679012346</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8684164196596513</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5037763208855929</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5119378940259964</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.46510422199345913</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.43500516970460834</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7746913580246915</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9899689915020629</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.20679012345679013</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.4537037037037037</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.1419753086419753</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.11728395061728394</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6564536124056723</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6551238789899213</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6255047311054798</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5985176943582527</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.759259259259259</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0633526951338235</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.36728395061728397</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.1697530864197531</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.043209876543209874</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6244944040280499</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6327191681645341</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5977393306979959</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5701869077806125</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.8981481481481484</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9436751961437756</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.44753086419753085</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.2993827160493827</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.024691358024691357</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>324.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5782770076890611</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5762656752659769</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.538537392024614</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5105865640922034</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.25</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.0742554481136493</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.021604938271604937</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.05864197530864197</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2932098765432099</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.4012345679012346</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.12654320987654322</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.31790123456790126</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.42592592592592593</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.015432098765432098</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.05246913580246913</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4351851851851852</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.043209876543209874</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.24691358024691357</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5246913580246914</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.1574074074074074</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.046296296296296294</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.024691358024691357</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.36728395061728397</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.25925925925925924</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="D53" t="n" s="111">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E53" t="n" s="112">
         <v>0.1697530864197531</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.16049382716049382</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.043209876543209874</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.44753086419753085</v>
+        <v>0.49074074074074076</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.14814814814814814</v>
+        <v>0.22530864197530864</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.2993827160493827</v>
+        <v>0.12654320987654322</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.08024691358024691</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.024691358024691357</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.20679012345679013</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.4537037037037037</v>
+        <v>0.16358024691358025</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.1419753086419753</v>
+        <v>0.33641975308641975</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.08024691358024691</v>
+        <v>0.25</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.11728395061728394</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.46296296296296297</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.30864197530864196</v>
+        <v>0.2808641975308642</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.12345679012345678</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.021604938271604937</v>
+        <v>0.033950617283950615</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.24691358024691357</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5246913580246914</v>
+        <v>0.22839506172839505</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.1574074074074074</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.046296296296296294</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.024691358024691357</v>
+        <v>0.040123456790123455</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.31790123456790126</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.16049382716049382</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.08024691358024691</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.015432098765432098</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.1697530864197531</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.043209876543209874</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.49074074074074076</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.22530864197530864</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.12654320987654322</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.08641975308641975</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.07098765432098765</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.05246913580246913</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.32098765432098764</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4351851851851852</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.043209876543209874</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.05864197530864197</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.12037037037037036</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2932098765432099</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.4012345679012346</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.12654320987654322</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.1728395061728395</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16358024691358025</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.33641975308641975</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.25</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.07716049382716049</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.033950617283950615</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.49691358024691357</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.23765432098765432</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.1728395061728395</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.05864197530864197</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.05864197530864197</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.44135802469135804</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.06481481481481481</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.046296296296296294</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.32098765432098764</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.29012345679012347</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.3734567901234568</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.24074074074074073</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.24382716049382716</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.043209876543209874</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.07716049382716049</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.22839506172839505</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.4537037037037037</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.2006172839506173</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.040123456790123455</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.2808641975308642</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.033950617283950615</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7492318159870068</v>
+        <v>0.8003989348029489</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7519831191296884</v>
+        <v>0.8014210059004683</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6738649998839631</v>
+        <v>0.7309424773820508</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5026511689514025</v>
+        <v>0.5736080047278689</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.031983615352784</v>
+        <v>4.035779360926664</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.024036625025225057</v>
+        <v>0.018952751024587704</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.003489489924541688</v>
+        <v>0.0014130032586695724</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5306656059788675</v>
+        <v>0.5629418003737684</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.770458215583367</v>
+        <v>0.7492318159870068</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7712169023541177</v>
+        <v>0.7519831191296884</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7019774055127808</v>
+        <v>0.6738649998839629</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5291127805003336</v>
+        <v>0.5026511689514025</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.370952270031031</v>
+        <v>3.031983615352784</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.0217772472649271</v>
+        <v>0.024036625025225057</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.006851255633868873</v>
+        <v>0.003489489924541691</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5629418003737684</v>
+        <v>0.5306656059788676</v>
       </c>
     </row>
     <row r="13">
@@ -4153,25 +3829,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8003989348029489</v>
+        <v>0.770458215583367</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8014210059004683</v>
+        <v>0.7712169023541177</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7309424773820508</v>
+        <v>0.7019774055127808</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5736080047278689</v>
+        <v>0.5291127805003336</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.035779360926664</v>
+        <v>3.370952270031031</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.018952751024587704</v>
+        <v>0.0217772472649271</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.0014130032586695724</v>
+        <v>0.006851255633868873</v>
       </c>
       <c r="I13" t="n" s="179">
         <v>0.5629418003737684</v>
@@ -4197,10 +3873,10 @@
         <v>4.118318491419658</v>
       </c>
       <c r="G14" t="n" s="177">
-        <v>0.01882846583427247</v>
+        <v>0.018828465834272484</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.001885812408116792</v>
+        <v>0.0018858124081167868</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.5896124404207616</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>324.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.858617101444083</v>
+        <v>0.7985128826370165</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8521044107583478</v>
+        <v>0.7865725063151232</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7935063201938071</v>
+        <v>0.6768668327262211</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7213283323777534</v>
+        <v>0.6166244721901066</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.253086419753086</v>
+        <v>2.447530864197531</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.2282118613697854</v>
+        <v>1.2368290934784776</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>324.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.824107679896828</v>
+        <v>0.858617101444083</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8276658942931954</v>
+        <v>0.8521044107583478</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7467394351602188</v>
+        <v>0.7935063201938068</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.6792209411195638</v>
+        <v>0.7213283323777534</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.0864197530864197</v>
+        <v>2.253086419753086</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.1342954427463918</v>
+        <v>1.2282118613697854</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>324.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.7985128826370165</v>
+        <v>0.824107679896828</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7865725063151232</v>
+        <v>0.8276658942931954</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6768668327262214</v>
+        <v>0.7467394351602191</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6166244721901066</v>
+        <v>0.6792209411195638</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.447530864197531</v>
+        <v>2.0864197530864197</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2368290934784776</v>
+        <v>1.1342954427463918</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7820063574542309</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.6668350576570286</v>
+        <v>0.6668350576570287</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.6041997194722831</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.36728395061728397</v>
+        <v>0.20679012345679013</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.25925925925925924</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.1697530864197531</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.16049382716049382</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.043209876543209874</v>
+        <v>0.11728395061728394</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.44753086419753085</v>
+        <v>0.36728395061728397</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.14814814814814814</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.2993827160493827</v>
+        <v>0.1697530864197531</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.08024691358024691</v>
+        <v>0.16049382716049382</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.024691358024691357</v>
+        <v>0.043209876543209874</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.20679012345679013</v>
+        <v>0.44753086419753085</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.4537037037037037</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.1419753086419753</v>
+        <v>0.2993827160493827</v>
       </c>
       <c r="E29" t="n" s="226">
         <v>0.08024691358024691</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.11728395061728394</v>
+        <v>0.024691358024691357</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7388390390485206</v>
+        <v>0.7983659774041374</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7433670989709685</v>
+        <v>0.8037060969429746</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7308574245695469</v>
+        <v>0.7789026001918762</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.36681742217150815</v>
+        <v>0.4502112237237311</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.8966165132773662</v>
+        <v>4.094401733453176</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.02285724602398385</v>
+        <v>0.017280360798825736</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.01736573981712777</v>
+        <v>0.01062558758511168</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.33487032564817076</v>
+        <v>0.4891593878081203</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.7497055146333134</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7357942526757367</v>
+        <v>0.7357942526757366</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.37463210996810375</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7585310315044097</v>
+        <v>0.7723329127293941</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7698845005894212</v>
+        <v>0.7803093726638255</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7538150313006851</v>
+        <v>0.7586377887925826</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.40088504825119253</v>
+        <v>0.41533156467764154</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.3456438291267405</v>
+        <v>3.551855543977224</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.021351351629285538</v>
+        <v>0.01982327540207021</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.013333341570689857</v>
+        <v>0.02045048752103298</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.4043341221162313</v>
+        <v>0.48912028206063873</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.763360011430213</v>
+        <v>0.7388390390485206</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7700557995639903</v>
+        <v>0.7433670989709685</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7571178093675456</v>
+        <v>0.7308574245695469</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.4011173584681438</v>
+        <v>0.36681742217150815</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.348881155096956</v>
+        <v>2.8966165132773662</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.02112533619988134</v>
+        <v>0.02285724602398385</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.016057294925497907</v>
+        <v>0.01736573981712777</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.4043732278637129</v>
+        <v>0.33487032564817076</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7723329127293941</v>
+        <v>0.7585310315044097</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7803093726638255</v>
+        <v>0.7698845005894212</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7586377887925826</v>
+        <v>0.7538150313006851</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.41533156467764154</v>
+        <v>0.40088504825119253</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.551855543977224</v>
+        <v>3.3456438291267405</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.01982327540207021</v>
+        <v>0.021351351629285538</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.02045048752103298</v>
+        <v>0.013333341570689855</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.48912028206063873</v>
+        <v>0.4043341221162313</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7983659774041374</v>
+        <v>0.763360011430213</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8037060969429746</v>
+        <v>0.7700557995639903</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7789026001918763</v>
+        <v>0.7571178093675457</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4502112237237311</v>
+        <v>0.4011173584681438</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.094401733453176</v>
+        <v>3.348881155096956</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.017280360798825736</v>
+        <v>0.02112533619988134</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.010625587585111678</v>
+        <v>0.016057294925497907</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.4891593878081203</v>
+        <v>0.4043732278637129</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>324.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7736180425312832</v>
+        <v>0.5819727309856715</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7896332132143936</v>
+        <v>0.5933172361291995</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7457576185920606</v>
+        <v>0.4723110616730061</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.667801579517978</v>
+        <v>0.38914991982274794</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.0771604938271606</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.8990379923136089</v>
+        <v>1.045038402719199</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7712367851604007</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.7207503856767588</v>
+        <v>0.7207503856767586</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.6509796341286059</v>
@@ -4895,22 +4571,22 @@
         <v>324.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7240244639027904</v>
+        <v>0.6502992636693136</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.709435174795218</v>
+        <v>0.67542686800326</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6362777368808057</v>
+        <v>0.5845773165155982</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.5632222375634401</v>
+        <v>0.5045756469312119</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.441358024691358</v>
+        <v>2.808641975308642</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1126709037950633</v>
+        <v>0.9042996750973791</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>324.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7419716736026606</v>
+        <v>0.7736180425312832</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7088882971331042</v>
+        <v>0.7896332132143936</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6290889343134165</v>
+        <v>0.7457576185920608</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.55969403454045</v>
+        <v>0.667801579517978</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.021604938271605</v>
+        <v>2.0771604938271606</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.267415846135104</v>
+        <v>0.8990379923136089</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>324.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6502992636693136</v>
+        <v>0.7240244639027904</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.67542686800326</v>
+        <v>0.709435174795218</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.584577316515598</v>
+        <v>0.6362777368808057</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5045756469312119</v>
+        <v>0.5632222375634401</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.808641975308642</v>
+        <v>2.441358024691358</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9042996750973791</v>
+        <v>1.1126709037950633</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>324.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5819727309856715</v>
+        <v>0.7419716736026606</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5933172361291995</v>
+        <v>0.7088882971331042</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.4723110616730061</v>
+        <v>0.6290889343134163</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.38914991982274794</v>
+        <v>0.55969403454045</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.4166666666666665</v>
+        <v>2.021604938271605</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.045038402719199</v>
+        <v>1.267415846135104</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.24691358024691357</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.5246913580246914</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.1574074074074074</v>
+        <v>0.2932098765432099</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.046296296296296294</v>
+        <v>0.4012345679012346</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.024691358024691357</v>
+        <v>0.12654320987654322</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,16 +4754,16 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.19444444444444445</v>
+        <v>0.05246913580246913</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.42592592592592593</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.16666666666666666</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.1697530864197531</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F33" t="n" s="341">
         <v>0.043209876543209874</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.49074074074074076</v>
+        <v>0.24691358024691357</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.22530864197530864</v>
+        <v>0.5246913580246914</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.12654320987654322</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.08641975308641975</v>
+        <v>0.046296296296296294</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.07098765432098765</v>
+        <v>0.024691358024691357</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,16 +4800,16 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.05246913580246913</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.32098765432098764</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.4351851851851852</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.14814814814814814</v>
+        <v>0.1697530864197531</v>
       </c>
       <c r="F35" t="n" s="341">
         <v>0.043209876543209874</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.05864197530864197</v>
+        <v>0.49074074074074076</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.12037037037037036</v>
+        <v>0.22530864197530864</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2932098765432099</v>
+        <v>0.12654320987654322</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.4012345679012346</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.12654320987654322</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8220213516971622</v>
+        <v>0.6988907552091035</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8237233357494832</v>
+        <v>0.6996323821323744</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8115320474222754</v>
+        <v>0.6133657153834563</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.40032043270165535</v>
+        <v>0.4370693956836769</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>4.672900631809343</v>
+        <v>2.329253689526239</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.014911401244057886</v>
+        <v>0.028294834721709725</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.8505291005291005</v>
+        <v>2.6810699588477367</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7093730019899301</v>
+        <v>0.8473831227781881</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.38332551833472694</v>
+        <v>0.40807759971983054</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.781247336914185</v>
+        <v>0.5595007270964614</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7853017147894878</v>
+        <v>0.5628818273221332</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7634215268708338</v>
+        <v>0.3916740028923872</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3787340062864486</v>
+        <v>0.3916740028923873</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>3.657699054370638</v>
+        <v>1.2877108811876086</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.01884886113155941</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.0073007599824063485</v>
-      </c>
+        <v>0.048463295988740884</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.362260180432238</v>
+        <v>0.39167400289238735</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7902624678965996</v>
+        <v>0.569012156471796</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7913324693858241</v>
+        <v>0.579623736363716</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7701670057673462</v>
+        <v>0.4080775997198308</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.38727445177577535</v>
+        <v>0.4080775997198305</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.7923124266467214</v>
+        <v>1.3788212763250003</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.017729267460721506</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.007104813250423489</v>
-      </c>
+        <v>0.046428481149635326</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3765781809541021</v>
+        <v>0.40807759971983054</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7911419391766167</v>
+        <v>0.6745810573896358</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7901398232460392</v>
+        <v>0.6767731070869112</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7671929528196161</v>
+        <v>0.5114565844388129</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.3855655504293408</v>
+        <v>0.5114565844388128</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.7650774695210307</v>
+        <v>2.0938019760282938</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.017696390014790595</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.00593048945816</v>
-      </c>
+        <v>0.03591895540818054</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.3765781809541021</v>
+        <v>0.5114565844388127</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8199739246811149</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.822745071356529</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8042941868802737</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.43617459117893903</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.641592071109012</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.015329625520827521</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.004672853901307575</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.44566665056440585</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7948497016998312</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7973802490908255</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7800799814594773</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.396095942779868</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.9353530221654247</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.017441995660373213</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.00786052001998574</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.38332551833472694</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8012681386132714</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.803023422564036</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.7862391953126611</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.4045696739846426</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.076745738081952</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.016850967213695906</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.009634858414697188</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.362260180432238</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8064657023323148</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8090115108287463</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7886343526350824</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.4138288124765728</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>4.23591764267704</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.016440946331902018</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.006785711821340696</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.40807759971983054</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>324.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8341997320393735</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8095326108783325</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6634777214485038</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5546705393082284</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.8950617283950617</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1861325906042703</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>324.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8066102797267649</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.802614658243206</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6488179988786772</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.5448170946326535</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.25</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.0742554481136493</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>324.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7271277176642236</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7590162372824506</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5447442473323116</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.46026830853014283</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.8981481481481484</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9436751961437756</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7829074978539307</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7634821041262027</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7230506952313487</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6582765254242436</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.8950617283950617</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1861325906042703</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.1728395061728395</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16358024691358025</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.33641975308641975</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.25</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.07716049382716049</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7294482375323684</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.737230215676212</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.6875199171041424</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.613450501173929</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.7253086419753085</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.9836944155614683</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.2808641975308642</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.033950617283950615</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7242496201043838</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7424830900812655</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6978617757106167</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.623126008078755</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.6512345679012346</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8684164196596513</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.582956426279432</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5869194378127912</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.46982572691248753</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.4269237328422424</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7746913580246915</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9899689915020629</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7161457364414354</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7101144407331541</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6435945018431972</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5839046338081132</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.759259259259259</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0633526951338235</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6729013978843386</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6840676207375286</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.6028814102017294</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.5466054777286253</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.8981481481481484</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9436751961437756</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>324.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6672992478852272</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.655606591258804</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5713306299050231</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5179425882868566</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.25</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.0742554481136493</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.1728395061728395</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16358024691358025</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.33641975308641975</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.25</v>
-      </c>
-      <c r="F33" t="n" s="455">
+      <c r="B27" t="n" s="451">
         <v>0.07716049382716049</v>
       </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.033950617283950615</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.49691358024691357</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.23765432098765432</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.1728395061728395</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.05864197530864197</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.05864197530864197</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.44135802469135804</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.06481481481481481</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.046296296296296294</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.32098765432098764</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.29012345679012347</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.3734567901234568</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.24074074074074073</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.24382716049382716</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.043209876543209874</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.07716049382716049</v>
-      </c>
-      <c r="C38" t="n" s="452">
+      <c r="C27" t="n" s="452">
         <v>0.22839506172839505</v>
       </c>
-      <c r="D38" t="n" s="453">
+      <c r="D27" t="n" s="453">
         <v>0.4537037037037037</v>
       </c>
-      <c r="E38" t="n" s="454">
+      <c r="E27" t="n" s="454">
         <v>0.2006172839506173</v>
       </c>
-      <c r="F38" t="n" s="455">
+      <c r="F27" t="n" s="455">
         <v>0.040123456790123455</v>
       </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.2808641975308642</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.033950617283950615</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
